--- a/input/l2/xls_form_iraq_v1.xlsx
+++ b/input/l2/xls_form_iraq_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="valueSet" sheetId="1" state="visible" r:id="rId2"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5364" uniqueCount="2385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5361" uniqueCount="2385">
   <si>
     <t xml:space="preserve">scope</t>
   </si>
@@ -948,6 +948,24 @@
     <t xml:space="preserve">Emcare</t>
   </si>
   <si>
+    <t xml:space="preserve">EmCare.B18S1.DE05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feeding Well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The client is reported to be feeding well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmCare.B18S1.DE04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Feeding Well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The client is reported to not be feeding well</t>
+  </si>
+  <si>
     <t xml:space="preserve">EmCare.B18S1.DE03</t>
   </si>
   <si>
@@ -955,24 +973,6 @@
   </si>
   <si>
     <t xml:space="preserve">The client is reported not to be able to feed at all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EmCare.B18S1.DE04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Feeding Well</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The client is reported to not be feeding well</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EmCare.B18S1.DE05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feeding Well</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The client is reported to be feeding well</t>
   </si>
   <si>
     <t xml:space="preserve">movements</t>
@@ -3709,6 +3709,9 @@
   </si>
   <si>
     <t xml:space="preserve">The client is reported to have difficulty with Feeding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horizontal</t>
   </si>
   <si>
     <t xml:space="preserve">EmCare.B11S1.DE01</t>
@@ -6806,7 +6809,7 @@
     <t xml:space="preserve">DL-G-CL1-69-70</t>
   </si>
   <si>
-    <t xml:space="preserve">C."age &gt;= 2 months to &lt;60 months" and C."fever" = true   and "Severe Complicated Measles"!=true</t>
+    <t xml:space="preserve">C."age &gt;= 2 months to &lt;60 months" and C."fever" = true   and "Severe Complicated Measles"!=true and  ("Pus Draining from Eye" = true  or "Oral Sores or Mouth Ulcers" = "Mouth Sores or Mouth Ulcers - Not Deep and Extensive" )</t>
   </si>
   <si>
     <t xml:space="preserve">DL-G-CL1-69</t>
@@ -6818,22 +6821,19 @@
     <t xml:space="preserve">DL-G-CL1-68-17</t>
   </si>
   <si>
-    <t xml:space="preserve">("Cough" = true  or  "Runny nose" = true or "Red eyes" = true) and ("Generalised or Localised Skin Problem" = "Generalised Skin Problem")</t>
+    <t xml:space="preserve">("Cough" = true  or  "Runny nose" = true or "Red eyes" = true)</t>
   </si>
   <si>
     <t xml:space="preserve">DL-G-CL1-68</t>
   </si>
   <si>
-    <t xml:space="preserve">"Measles Rash" = true   and ("Pus Draining from Eye" = true  or  "Oral Sores or Mouth Ulcers" = "Mouth Sores or Mouth Ulcers - Not Deep and Extensive"  )</t>
+    <t xml:space="preserve">("Generalised or Localised Skin Problem" = "Generalised Skin Problem") and ("Measles Rash" = true or  ("Measles Rash" =false and "Measles in last 3 months" = true))  </t>
   </si>
   <si>
     <t xml:space="preserve">DL-I-CL1-17</t>
   </si>
   <si>
-    <t xml:space="preserve">includes DL-G-CL1-70 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Measles in last 3 months" = true and ("Pus Draining from Eye" = true  or "Oral Sores or Mouth Ulcers" = "Mouth Sores or Mouth Ulcers - Not Deep and Extensive" )</t>
+    <t xml:space="preserve">("Generalised or Localised Skin Problem" != "Generalised Skin Problem") and "Measles in last 3 months" = true</t>
   </si>
   <si>
     <t xml:space="preserve">EmCare.B23.DE28</t>
@@ -9430,8 +9430,8 @@
   </sheetPr>
   <dimension ref="A1:J231"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A117" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C157" activeCellId="0" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11171,42 +11171,8 @@
       </c>
       <c r="F105" s="6"/>
     </row>
-    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="E106" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="F106" s="6"/>
-    </row>
-    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F107" s="6"/>
-    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
         <v>260</v>
@@ -11215,28 +11181,50 @@
         <v>257</v>
       </c>
       <c r="C108" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F108" s="6"/>
+    </row>
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F109" s="6"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="D110" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E110" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="F108" s="6"/>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="3"/>
-      <c r="F109" s="6"/>
-    </row>
-    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="6"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="3"/>
-      <c r="E110" s="14"/>
       <c r="F110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13202,7 +13190,7 @@
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
@@ -13220,7 +13208,7 @@
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
       <c r="G3" s="31" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
@@ -13253,7 +13241,7 @@
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
       <c r="G4" s="31" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
@@ -13327,7 +13315,7 @@
         <v>776</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D7" s="43" t="s">
         <v>778</v>
@@ -13363,13 +13351,13 @@
         <v>571</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
@@ -13402,23 +13390,23 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
       <c r="I12" s="0" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="J12" s="31"/>
       <c r="L12" s="31"/>
@@ -13501,16 +13489,16 @@
         <v>571</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="E15" s="75" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
@@ -13542,23 +13530,23 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="0" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="J16" s="31"/>
       <c r="L16" s="31"/>
@@ -13613,16 +13601,16 @@
         <v>571</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
@@ -13654,23 +13642,23 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="0" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="J20" s="31"/>
       <c r="L20" s="31"/>
@@ -13753,20 +13741,20 @@
         <v>571</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="0" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="J23" s="31"/>
       <c r="L23" s="31"/>
@@ -13957,13 +13945,13 @@
         <v>571</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
@@ -13996,13 +13984,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>601</v>
@@ -14011,7 +13999,7 @@
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
       <c r="I31" s="0" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="J31" s="31"/>
       <c r="L31" s="31"/>
@@ -14030,19 +14018,19 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
       <c r="H32" s="0" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="J32" s="31"/>
       <c r="L32" s="31"/>
@@ -14073,7 +14061,7 @@
         <v>571</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C33" s="31" t="s">
         <v>648</v>
@@ -14083,7 +14071,7 @@
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
       <c r="H33" s="31" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="I33" s="31"/>
       <c r="J33" s="31"/>
@@ -14143,20 +14131,20 @@
         <v>571</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="E35" s="31"/>
       <c r="F35" s="31"/>
       <c r="G35" s="31"/>
       <c r="H35" s="31"/>
       <c r="I35" s="0" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="J35" s="31"/>
       <c r="L35" s="31"/>
@@ -14186,13 +14174,13 @@
         <v>571</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="E36" s="31"/>
       <c r="F36" s="31"/>
@@ -14229,22 +14217,22 @@
         <v>571</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="E37" s="59" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
       <c r="H37" s="31"/>
       <c r="I37" s="0" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="J37" s="31"/>
       <c r="K37" s="0" t="n">
@@ -14277,20 +14265,20 @@
         <v>571</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="E38" s="31"/>
       <c r="F38" s="31"/>
       <c r="G38" s="31"/>
       <c r="H38" s="31"/>
       <c r="I38" s="0" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="J38" s="31"/>
       <c r="L38" s="31"/>
@@ -14316,23 +14304,23 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
       <c r="G39" s="31"/>
       <c r="H39" s="31"/>
       <c r="I39" s="0" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="J39" s="31"/>
       <c r="L39" s="31"/>
@@ -14388,13 +14376,13 @@
         <v>571</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>240</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
@@ -14431,20 +14419,20 @@
         <v>571</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>234</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
       <c r="H42" s="31"/>
       <c r="I42" s="0" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="J42" s="31"/>
       <c r="K42" s="0" t="n">
@@ -14477,20 +14465,20 @@
         <v>571</v>
       </c>
       <c r="B43" s="56" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
       <c r="H43" s="31"/>
       <c r="I43" s="0" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="J43" s="31"/>
       <c r="K43" s="0" t="n">
@@ -14623,7 +14611,7 @@
         <v>721</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="L1" s="0" t="s">
         <v>724</v>
@@ -14697,12 +14685,12 @@
       <c r="C3" s="55"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="I3" s="31"/>
       <c r="K3" s="31"/>
@@ -14733,7 +14721,7 @@
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="43" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="E4" s="43" t="s">
         <v>778</v>
@@ -14768,15 +14756,15 @@
         <v>571</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
       <c r="H5" s="0" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
@@ -14803,15 +14791,15 @@
         <v>571</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
       <c r="H6" s="0" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
@@ -14838,13 +14826,13 @@
         <v>571</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>463</v>
       </c>
       <c r="H7" s="76" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="N7" s="77" t="s">
         <v>855</v>
@@ -14855,13 +14843,13 @@
         <v>571</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="N8" s="31" t="s">
         <v>855</v>
@@ -14880,7 +14868,7 @@
         <v>986</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="N9" s="31" t="s">
         <v>855</v>
@@ -14895,12 +14883,12 @@
         <v>972</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="I10" s="31"/>
       <c r="K10" s="31"/>
@@ -14930,12 +14918,12 @@
         <v>648</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
       <c r="H11" s="31" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="I11" s="31"/>
       <c r="K11" s="31"/>
@@ -14988,15 +14976,15 @@
         <v>571</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
       <c r="H15" s="0" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="I15" s="31"/>
       <c r="K15" s="31"/>
@@ -15026,12 +15014,12 @@
         <v>240</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
       <c r="H16" s="28" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="I16" s="31"/>
       <c r="K16" s="31"/>
@@ -15060,12 +15048,12 @@
         <v>234</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
       <c r="H17" s="0" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="I17" s="31"/>
       <c r="K17" s="31"/>
@@ -15091,15 +15079,15 @@
         <v>571</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
       <c r="H18" s="0" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="I18" s="31"/>
       <c r="K18" s="31"/>
@@ -15122,18 +15110,18 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="I19" s="31"/>
       <c r="K19" s="31"/>
@@ -15159,16 +15147,16 @@
         <v>571</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="C20" s="56"/>
       <c r="E20" s="0" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
       <c r="H20" s="55" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="I20" s="31"/>
       <c r="K20" s="31"/>
@@ -15194,14 +15182,14 @@
         <v>992</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C21" s="40"/>
       <c r="E21" s="0" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="P21" s="31"/>
       <c r="Q21" s="31"/>
@@ -15233,19 +15221,19 @@
         <v>571</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>1313</v>
+      </c>
+      <c r="J24" s="40" t="s">
         <v>1309</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>1311</v>
-      </c>
-      <c r="F24" s="78" t="s">
-        <v>1312</v>
-      </c>
-      <c r="J24" s="40" t="s">
-        <v>1308</v>
       </c>
       <c r="L24" s="0" t="n">
         <v>1</v>
@@ -15279,19 +15267,19 @@
         <v>571</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="F26" s="81" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="L26" s="0" t="n">
         <v>1</v>
@@ -15316,19 +15304,19 @@
         <v>571</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="F28" s="78" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="L28" s="0" t="n">
         <v>1</v>
@@ -15348,16 +15336,16 @@
         <v>571</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="P29" s="31" t="s">
         <v>942</v>
@@ -15374,10 +15362,10 @@
         <v>877</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="J30" s="40" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="P30" s="31"/>
       <c r="T30" s="43"/>
@@ -15388,22 +15376,22 @@
         <v>799</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="J31" s="40" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="P31" s="31" t="s">
         <v>1010</v>
@@ -15423,16 +15411,16 @@
         <v>130</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="N32" s="0" t="s">
         <v>841</v>
@@ -15451,7 +15439,7 @@
         <v>132</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D33" s="40" t="s">
         <v>133</v>
@@ -15460,7 +15448,7 @@
         <v>134</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="P33" s="31" t="s">
         <v>1015</v>
@@ -15473,16 +15461,16 @@
         <v>571</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="F34" s="82" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>612</v>
@@ -15502,19 +15490,19 @@
     </row>
     <row r="35" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>151</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="F35" s="81" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>612</v>
@@ -15537,16 +15525,16 @@
         <v>571</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="L36" s="0" t="n">
         <v>1</v>
@@ -15566,14 +15554,14 @@
         <v>571</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="24" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="L37" s="0" t="n">
         <v>1</v>
@@ -15590,20 +15578,20 @@
     </row>
     <row r="38" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="56" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="83" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="L38" s="0" t="n">
         <v>1</v>
@@ -15623,17 +15611,17 @@
         <v>571</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="83" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="L39" s="0" t="n">
         <v>1</v>
@@ -15650,20 +15638,20 @@
     </row>
     <row r="40" customFormat="false" ht="114" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="56" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="83" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="J40" s="40" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="K40" s="23"/>
       <c r="L40" s="0" t="n">
@@ -15684,16 +15672,16 @@
         <v>571</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="L41" s="0" t="n">
         <v>1</v>
@@ -15713,16 +15701,16 @@
         <v>571</v>
       </c>
       <c r="B42" s="0" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>1363</v>
+      </c>
+      <c r="J42" s="0" t="s">
         <v>1360</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>1361</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>1362</v>
-      </c>
-      <c r="J42" s="0" t="s">
-        <v>1359</v>
       </c>
       <c r="L42" s="0" t="n">
         <v>1</v>
@@ -15739,19 +15727,19 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="L43" s="0" t="n">
         <v>1</v>
@@ -15774,16 +15762,16 @@
         <v>571</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="L45" s="0" t="n">
         <v>1</v>
@@ -15812,17 +15800,17 @@
         <v>571</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C49" s="56"/>
       <c r="D49" s="0" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="L49" s="0" t="n">
         <v>1</v>
@@ -15842,17 +15830,17 @@
         <v>571</v>
       </c>
       <c r="B53" s="56" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C53" s="56"/>
       <c r="D53" s="0" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="L53" s="0" t="n">
         <v>1</v>
@@ -15872,16 +15860,16 @@
         <v>571</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="L54" s="0" t="n">
         <v>1</v>
@@ -15901,16 +15889,16 @@
         <v>571</v>
       </c>
       <c r="B55" s="0" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>1385</v>
+      </c>
+      <c r="J55" s="0" t="s">
         <v>1382</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>1384</v>
-      </c>
-      <c r="J55" s="0" t="s">
-        <v>1381</v>
       </c>
       <c r="L55" s="0" t="n">
         <v>1</v>
@@ -15930,16 +15918,16 @@
         <v>571</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="P56" s="31" t="s">
         <v>942</v>
@@ -15956,16 +15944,16 @@
         <v>571</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="P57" s="31" t="s">
         <v>942</v>
@@ -15979,7 +15967,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B58" s="56" t="s">
         <v>162</v>
@@ -15989,10 +15977,10 @@
         <v>163</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="J58" s="56" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="L58" s="0" t="n">
         <v>1</v>
@@ -16016,17 +16004,17 @@
         <v>571</v>
       </c>
       <c r="B59" s="56" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C59" s="56"/>
       <c r="D59" s="0" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="J59" s="56" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="L59" s="0" t="n">
         <v>1</v>
@@ -16046,16 +16034,16 @@
         <v>571</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="J60" s="56" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="L60" s="0" t="n">
         <v>1</v>
@@ -16075,16 +16063,16 @@
         <v>571</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="J61" s="56" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="L61" s="0" t="n">
         <v>1</v>
@@ -16101,7 +16089,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B62" s="56" t="s">
         <v>175</v>
@@ -16111,13 +16099,13 @@
         <v>176</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="J62" s="56" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="P62" s="31" t="str">
         <f aca="false">CONCATENATE("SetObservationMultiple::",RIGHT(A62,LEN(A62)-FIND(" ",A62)))</f>
@@ -16149,16 +16137,16 @@
         <v>571</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="J65" s="28" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="P65" s="31" t="s">
         <v>942</v>
@@ -16175,16 +16163,16 @@
         <v>571</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="J66" s="28" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="P66" s="31" t="s">
         <v>942</v>
@@ -16201,17 +16189,17 @@
         <v>571</v>
       </c>
       <c r="B67" s="56" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C67" s="56"/>
       <c r="D67" s="0" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="J67" s="28" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="P67" s="31" t="s">
         <v>942</v>
@@ -16231,16 +16219,16 @@
         <v>571</v>
       </c>
       <c r="B69" s="0" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>1427</v>
+      </c>
+      <c r="J69" s="28" t="s">
         <v>1424</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>1425</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J69" s="28" t="s">
-        <v>1423</v>
       </c>
       <c r="P69" s="31" t="s">
         <v>942</v>
@@ -16263,17 +16251,17 @@
         <v>571</v>
       </c>
       <c r="B71" s="56" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="C71" s="56"/>
       <c r="D71" s="0" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="J71" s="28" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="P71" s="31" t="s">
         <v>942</v>
@@ -16290,17 +16278,17 @@
         <v>571</v>
       </c>
       <c r="B72" s="56" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C72" s="56"/>
       <c r="D72" s="56" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="J72" s="28" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="P72" s="31" t="s">
         <v>942</v>
@@ -16322,17 +16310,17 @@
         <v>571</v>
       </c>
       <c r="B74" s="56" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="C74" s="56"/>
       <c r="D74" s="0" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="J74" s="28" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="P74" s="31" t="s">
         <v>942</v>
@@ -16349,17 +16337,17 @@
         <v>571</v>
       </c>
       <c r="B75" s="56" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C75" s="56"/>
       <c r="D75" s="0" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="J75" s="28" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="P75" s="31" t="s">
         <v>942</v>
@@ -16381,17 +16369,17 @@
         <v>571</v>
       </c>
       <c r="B77" s="56" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C77" s="56"/>
       <c r="D77" s="0" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="J77" s="28" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="P77" s="31" t="s">
         <v>942</v>
@@ -16413,16 +16401,16 @@
         <v>571</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="J79" s="28" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="P79" s="31" t="s">
         <v>942</v>
@@ -16439,17 +16427,17 @@
         <v>571</v>
       </c>
       <c r="B80" s="56" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="C80" s="56"/>
       <c r="D80" s="0" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="J80" s="28" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="P80" s="31" t="s">
         <v>942</v>
@@ -16466,17 +16454,17 @@
         <v>571</v>
       </c>
       <c r="B81" s="56" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="C81" s="56"/>
       <c r="D81" s="0" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="J81" s="28" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="P81" s="31" t="s">
         <v>942</v>
@@ -16493,17 +16481,17 @@
         <v>571</v>
       </c>
       <c r="B82" s="56" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="C82" s="56"/>
       <c r="D82" s="0" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="J82" s="28" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="P82" s="31" t="s">
         <v>942</v>
@@ -16523,7 +16511,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="57" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B84" s="57" t="s">
         <v>216</v>
@@ -16533,14 +16521,14 @@
         <v>217</v>
       </c>
       <c r="E84" s="57" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="F84" s="57"/>
       <c r="G84" s="57"/>
       <c r="H84" s="57"/>
       <c r="I84" s="57"/>
       <c r="J84" s="62" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="K84" s="57"/>
       <c r="L84" s="57" t="n">
@@ -16548,7 +16536,7 @@
       </c>
       <c r="M84" s="57"/>
       <c r="N84" s="57" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="O84" s="57"/>
       <c r="P84" s="31" t="s">
@@ -16571,7 +16559,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>231</v>
@@ -16580,10 +16568,10 @@
         <v>232</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="J85" s="56" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="N85" s="0" t="s">
         <v>747</v>
@@ -16601,14 +16589,14 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B86" s="56" t="s">
         <v>246</v>
       </c>
       <c r="C86" s="56"/>
       <c r="D86" s="0" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="E86" s="0" t="s">
         <v>247</v>
@@ -16628,7 +16616,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="56" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B87" s="56" t="s">
         <v>543</v>
@@ -16638,7 +16626,7 @@
         <v>544</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="L87" s="0" t="n">
         <v>1</v>
@@ -16671,7 +16659,7 @@
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="BK131" s="0" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
   </sheetData>
@@ -16733,7 +16721,7 @@
         <v>721</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="L1" s="0" t="s">
         <v>724</v>
@@ -16791,7 +16779,7 @@
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="32" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
@@ -16879,14 +16867,14 @@
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="68" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="32" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="32" t="s">
@@ -16916,7 +16904,7 @@
         <v>591</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="32"/>
@@ -16924,7 +16912,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
@@ -16948,7 +16936,7 @@
         <v>591</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C8" s="68"/>
       <c r="D8" s="32"/>
@@ -16956,7 +16944,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
@@ -17058,13 +17046,13 @@
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="29" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="N12" s="31" t="s">
         <v>855</v>
@@ -17076,13 +17064,13 @@
         <v>571</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="I13" s="31"/>
       <c r="N13" s="31" t="s">
@@ -17095,13 +17083,13 @@
         <v>571</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="I14" s="31"/>
       <c r="N14" s="31" t="s">
@@ -17114,13 +17102,13 @@
         <v>571</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="I15" s="31"/>
       <c r="N15" s="31" t="s">
@@ -17133,13 +17121,13 @@
         <v>571</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="I16" s="31"/>
       <c r="N16" s="31" t="s">
@@ -17152,10 +17140,10 @@
         <v>992</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17166,7 +17154,7 @@
         <v>993</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17174,10 +17162,10 @@
         <v>992</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17185,10 +17173,10 @@
         <v>992</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17196,10 +17184,10 @@
         <v>992</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17207,10 +17195,10 @@
         <v>992</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17218,13 +17206,13 @@
         <v>3</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
   </sheetData>
@@ -17285,7 +17273,7 @@
         <v>721</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>724</v>
@@ -17343,7 +17331,7 @@
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
@@ -17354,15 +17342,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D3" s="31"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
@@ -17387,13 +17375,13 @@
         <v>571</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>588</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="H4" s="31"/>
       <c r="J4" s="31"/>
@@ -17429,7 +17417,7 @@
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="H5" s="31"/>
       <c r="J5" s="31"/>
@@ -17465,7 +17453,7 @@
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
       <c r="G6" s="31" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="H6" s="31"/>
       <c r="J6" s="31"/>
@@ -17567,7 +17555,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>462</v>
@@ -17579,7 +17567,7 @@
         <v>463</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>1</v>
@@ -17599,16 +17587,16 @@
         <v>743</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1</v>
@@ -17625,22 +17613,22 @@
     </row>
     <row r="12" s="29" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="H12" s="68" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="M12" s="29" t="s">
         <v>855</v>
@@ -17660,16 +17648,16 @@
         <v>571</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="O13" s="31" t="s">
         <v>942</v>
@@ -17683,19 +17671,19 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="O14" s="31" t="s">
         <v>963</v>
@@ -17774,7 +17762,7 @@
         <v>721</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="L1" s="0" t="s">
         <v>724</v>
@@ -17832,7 +17820,7 @@
         <v>776</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="E2" s="43" t="s">
         <v>778</v>
@@ -17868,14 +17856,14 @@
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="51" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D3" s="43"/>
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="I3" s="31"/>
       <c r="K3" s="31"/>
@@ -17901,14 +17889,14 @@
         <v>799</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
       <c r="F5" s="43"/>
       <c r="G5" s="31"/>
       <c r="H5" s="0" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="I5" s="31"/>
       <c r="K5" s="31"/>
@@ -17935,14 +17923,14 @@
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
       <c r="G6" s="31"/>
       <c r="H6" s="0" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="I6" s="31"/>
       <c r="K6" s="31"/>
@@ -17992,28 +17980,28 @@
         <v>799</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="P8" s="31" t="s">
         <v>1010</v>
@@ -18045,16 +18033,16 @@
         <v>743</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="P10" s="31" t="s">
         <v>1015</v>
@@ -18071,10 +18059,10 @@
         <v>877</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="P11" s="31"/>
     </row>
@@ -18083,22 +18071,22 @@
         <v>799</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="P12" s="31" t="s">
         <v>1010</v>
@@ -18115,19 +18103,19 @@
         <v>743</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="P13" s="31" t="s">
         <v>1015</v>
@@ -18147,25 +18135,25 @@
         <v>571</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>463</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>841</v>
@@ -18368,7 +18356,7 @@
         <v>721</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>724</v>
@@ -18479,22 +18467,22 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="O5" s="31" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="S5" s="29" t="s">
         <v>944</v>
@@ -18516,7 +18504,7 @@
         <v>564</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="O6" s="31" t="s">
         <v>1015</v>
@@ -18557,7 +18545,7 @@
         <v>562</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="O10" s="31" t="s">
         <v>942</v>
@@ -18693,7 +18681,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18733,7 +18721,7 @@
         <v>721</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>724</v>
@@ -18817,7 +18805,7 @@
         <v>776</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D3" s="43" t="s">
         <v>778</v>
@@ -18852,13 +18840,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="O4" s="31"/>
       <c r="V4" s="29" t="s">
@@ -18870,13 +18858,13 @@
         <v>571</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="O5" s="31" t="s">
         <v>942</v>
@@ -18893,13 +18881,13 @@
         <v>571</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>1</v>
@@ -18919,16 +18907,16 @@
         <v>571</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="O7" s="31" t="s">
         <v>942</v>
@@ -18945,16 +18933,16 @@
         <v>571</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>1</v>
@@ -18974,16 +18962,16 @@
         <v>571</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>1591</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>1588</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>1589</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>1590</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>1587</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>1</v>
@@ -19003,16 +18991,16 @@
         <v>571</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>1</v>
@@ -19032,16 +19020,16 @@
         <v>571</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1</v>
@@ -19061,16 +19049,16 @@
         <v>571</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1</v>
@@ -19090,16 +19078,16 @@
         <v>571</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>1</v>
@@ -19125,13 +19113,13 @@
         <v>493</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="H14" s="89" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>1</v>
@@ -19140,7 +19128,7 @@
         <v>841</v>
       </c>
       <c r="O14" s="31" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="S14" s="0" t="s">
         <v>944</v>
@@ -19160,7 +19148,7 @@
         <v>495</v>
       </c>
       <c r="H15" s="89" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>855</v>
@@ -19178,7 +19166,7 @@
         <v>498</v>
       </c>
       <c r="H16" s="90" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>855</v>
@@ -19196,7 +19184,7 @@
         <v>501</v>
       </c>
       <c r="H17" s="90" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>855</v>
@@ -19214,7 +19202,7 @@
         <v>504</v>
       </c>
       <c r="H18" s="90" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>855</v>
@@ -19230,16 +19218,16 @@
         <v>571</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="M21" s="29" t="s">
         <v>841</v>
@@ -19262,16 +19250,16 @@
         <v>571</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>841</v>
@@ -19407,7 +19395,7 @@
         <v>721</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>724</v>
@@ -19514,16 +19502,16 @@
         <v>799</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="I4" s="91" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>1</v>
@@ -19540,16 +19528,16 @@
         <v>743</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="I5" s="91" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>1</v>
@@ -19645,7 +19633,7 @@
         <v>721</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>724</v>
@@ -19702,7 +19690,7 @@
         <v>776</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D2" s="43" t="s">
         <v>778</v>
@@ -19737,16 +19725,16 @@
         <v>799</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>1008</v>
@@ -19766,16 +19754,16 @@
         <v>743</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>747</v>
@@ -19795,16 +19783,16 @@
         <v>736</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I6" s="0" t="s">
         <v>1635</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>1636</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>1637</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>1634</v>
       </c>
       <c r="M6" s="28" t="s">
         <v>841</v>
@@ -19932,7 +19920,7 @@
         <v>721</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="L1" s="30" t="s">
         <v>724</v>
@@ -20034,7 +20022,7 @@
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="32" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
@@ -20064,7 +20052,7 @@
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="32" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
@@ -20100,7 +20088,7 @@
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
@@ -20136,14 +20124,14 @@
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="31" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
@@ -20199,10 +20187,10 @@
         <v>571</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="H8" s="30" t="s">
         <v>591</v>
@@ -20216,13 +20204,13 @@
         <v>591</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="10" s="30" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20230,13 +20218,13 @@
         <v>591</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="11" s="30" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20244,13 +20232,13 @@
         <v>591</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="12" s="30" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20258,13 +20246,13 @@
         <v>591</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="13" s="30" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20272,13 +20260,13 @@
         <v>591</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="14" s="41" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20286,20 +20274,20 @@
         <v>571</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="P14" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
         <v>SetClassification</v>
       </c>
       <c r="T14" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W14" s="41" t="s">
         <v>7</v>
@@ -20311,13 +20299,13 @@
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="N15" s="30" t="s">
         <v>855</v>
@@ -20328,13 +20316,13 @@
         <v>571</v>
       </c>
       <c r="C16" s="93" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="D16" s="93" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="J16" s="92" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="O16" s="41"/>
       <c r="P16" s="41" t="str">
@@ -20345,7 +20333,7 @@
       <c r="R16" s="41"/>
       <c r="S16" s="41"/>
       <c r="T16" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="U16" s="41"/>
       <c r="V16" s="41"/>
@@ -20358,13 +20346,13 @@
         <v>571</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="N17" s="30" t="s">
         <v>855</v>
@@ -20375,13 +20363,13 @@
         <v>571</v>
       </c>
       <c r="C18" s="92" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="D18" s="93" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="J18" s="92" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="O18" s="41"/>
       <c r="P18" s="41" t="str">
@@ -20392,7 +20380,7 @@
       <c r="R18" s="41"/>
       <c r="S18" s="41"/>
       <c r="T18" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="U18" s="41"/>
       <c r="V18" s="41"/>
@@ -20405,10 +20393,10 @@
         <v>571</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="N19" s="30" t="s">
         <v>855</v>
@@ -20419,13 +20407,13 @@
         <v>571</v>
       </c>
       <c r="C20" s="92" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="D20" s="93" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="J20" s="92" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="O20" s="41"/>
       <c r="P20" s="41" t="str">
@@ -20436,7 +20424,7 @@
       <c r="R20" s="41"/>
       <c r="S20" s="41"/>
       <c r="T20" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="U20" s="41"/>
       <c r="V20" s="41"/>
@@ -20449,10 +20437,10 @@
         <v>571</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="N21" s="30" t="s">
         <v>855</v>
@@ -20463,13 +20451,13 @@
         <v>571</v>
       </c>
       <c r="C22" s="93" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="D22" s="93" t="s">
         <v>298</v>
       </c>
       <c r="J22" s="92" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="P22" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -20479,7 +20467,7 @@
       <c r="R22" s="41"/>
       <c r="S22" s="41"/>
       <c r="T22" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="U22" s="41"/>
       <c r="V22" s="41"/>
@@ -20492,13 +20480,13 @@
         <v>571</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="N23" s="30" t="s">
         <v>855</v>
@@ -20509,13 +20497,13 @@
         <v>591</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="P24" s="34"/>
       <c r="Q24" s="34"/>
@@ -20531,13 +20519,13 @@
         <v>591</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="P25" s="34"/>
       <c r="Q25" s="34"/>
@@ -20553,13 +20541,13 @@
         <v>591</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="P26" s="34"/>
       <c r="Q26" s="34"/>
@@ -20575,13 +20563,13 @@
         <v>571</v>
       </c>
       <c r="C27" s="92" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D27" s="93" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="J27" s="93" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="P27" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -20591,7 +20579,7 @@
       <c r="R27" s="41"/>
       <c r="S27" s="41"/>
       <c r="T27" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="U27" s="41"/>
       <c r="V27" s="41"/>
@@ -20604,10 +20592,10 @@
         <v>571</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="N28" s="30" t="s">
         <v>855</v>
@@ -20618,13 +20606,13 @@
         <v>571</v>
       </c>
       <c r="C29" s="92" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="D29" s="93" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="J29" s="92" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="P29" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -20634,7 +20622,7 @@
       <c r="R29" s="41"/>
       <c r="S29" s="41"/>
       <c r="T29" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="U29" s="41"/>
       <c r="V29" s="41"/>
@@ -20647,10 +20635,10 @@
         <v>571</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="N30" s="30" t="s">
         <v>855</v>
@@ -20661,13 +20649,13 @@
         <v>571</v>
       </c>
       <c r="C31" s="92" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="D31" s="93" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="J31" s="92" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="P31" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -20677,7 +20665,7 @@
       <c r="R31" s="41"/>
       <c r="S31" s="41"/>
       <c r="T31" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="U31" s="41"/>
       <c r="V31" s="41"/>
@@ -20696,7 +20684,7 @@
         <v>611</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="N32" s="30" t="s">
         <v>855</v>
@@ -20707,14 +20695,14 @@
         <v>571</v>
       </c>
       <c r="C33" s="93" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="D33" s="93" t="s">
         <v>611</v>
       </c>
       <c r="H33" s="41"/>
       <c r="J33" s="92" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="P33" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -20724,7 +20712,7 @@
       <c r="R33" s="41"/>
       <c r="S33" s="41"/>
       <c r="T33" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="U33" s="41"/>
       <c r="V33" s="41"/>
@@ -20743,7 +20731,7 @@
         <v>628</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="N34" s="30" t="s">
         <v>855</v>
@@ -20754,13 +20742,13 @@
         <v>571</v>
       </c>
       <c r="C35" s="93" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="D35" s="93" t="s">
         <v>628</v>
       </c>
       <c r="J35" s="92" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="P35" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -20770,7 +20758,7 @@
       <c r="R35" s="41"/>
       <c r="S35" s="41"/>
       <c r="T35" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="U35" s="41"/>
       <c r="V35" s="41"/>
@@ -20783,13 +20771,13 @@
         <v>571</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="N36" s="30" t="s">
         <v>855</v>
@@ -20800,13 +20788,13 @@
         <v>571</v>
       </c>
       <c r="C37" s="93" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="D37" s="93" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="J37" s="92" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="P37" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -20816,7 +20804,7 @@
       <c r="R37" s="41"/>
       <c r="S37" s="41"/>
       <c r="T37" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="U37" s="41"/>
       <c r="V37" s="41"/>
@@ -20829,7 +20817,7 @@
         <v>571</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="H38" s="28" t="s">
         <v>591</v>
@@ -20843,13 +20831,13 @@
         <v>591</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="N39" s="30"/>
     </row>
@@ -20858,13 +20846,13 @@
         <v>591</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20872,13 +20860,13 @@
         <v>591</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20886,13 +20874,13 @@
         <v>591</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20900,10 +20888,10 @@
         <v>571</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="N43" s="30" t="s">
         <v>855</v>
@@ -20914,10 +20902,10 @@
         <v>571</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="N44" s="30" t="s">
         <v>855</v>
@@ -20928,13 +20916,13 @@
         <v>571</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="H45" s="40" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="N45" s="30" t="s">
         <v>855</v>
@@ -20945,13 +20933,13 @@
         <v>571</v>
       </c>
       <c r="C46" s="92" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="D46" s="93" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="J46" s="92" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="P46" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -20961,7 +20949,7 @@
       <c r="R46" s="41"/>
       <c r="S46" s="41"/>
       <c r="T46" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="U46" s="41"/>
       <c r="V46" s="41"/>
@@ -20975,13 +20963,13 @@
       </c>
       <c r="B47" s="95"/>
       <c r="C47" s="96" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="D47" s="97" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="J47" s="94" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="N47" s="94" t="s">
         <v>841</v>
@@ -20993,13 +20981,13 @@
       </c>
       <c r="B48" s="95"/>
       <c r="C48" s="96" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="D48" s="97" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="J48" s="94" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="N48" s="94" t="s">
         <v>841</v>
@@ -21011,13 +20999,13 @@
       </c>
       <c r="B49" s="95"/>
       <c r="C49" s="96" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="D49" s="97" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="J49" s="94" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="N49" s="94" t="s">
         <v>841</v>
@@ -21036,10 +21024,10 @@
         <v>571</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="N52" s="30" t="s">
         <v>855</v>
@@ -21050,13 +21038,13 @@
         <v>571</v>
       </c>
       <c r="C53" s="92" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="D53" s="93" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="J53" s="92" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="P53" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -21066,7 +21054,7 @@
       <c r="R53" s="41"/>
       <c r="S53" s="41"/>
       <c r="T53" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="U53" s="41"/>
       <c r="V53" s="41"/>
@@ -21076,19 +21064,19 @@
     </row>
     <row r="55" s="41" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="41" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="D55" s="41" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="P55" s="41" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="T55" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
   </sheetData>
@@ -21109,10 +21097,10 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="D59" activeCellId="0" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21760,9 +21748,7 @@
       <c r="C59" s="34" t="s">
         <v>637</v>
       </c>
-      <c r="D59" s="34" t="s">
-        <v>637</v>
-      </c>
+      <c r="D59" s="34"/>
       <c r="E59" s="34"/>
       <c r="F59" s="34" t="s">
         <v>622</v>
@@ -21833,9 +21819,7 @@
       <c r="C65" s="34" t="s">
         <v>644</v>
       </c>
-      <c r="D65" s="34" t="s">
-        <v>644</v>
-      </c>
+      <c r="D65" s="34"/>
       <c r="F65" s="34" t="s">
         <v>622</v>
       </c>
@@ -21856,9 +21840,6 @@
         <v>571</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>646</v>
-      </c>
-      <c r="D68" s="30" t="s">
         <v>646</v>
       </c>
       <c r="F68" s="34" t="s">
@@ -21912,11 +21893,11 @@
   <dimension ref="A1:AD183"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AL26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E74" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AL1" activeCellId="0" sqref="AL1"/>
-      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
-      <selection pane="bottomRight" activeCell="D158" activeCellId="0" sqref="D158"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A74" activeCellId="0" sqref="A74"/>
+      <selection pane="bottomRight" activeCell="G99" activeCellId="0" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21963,7 +21944,7 @@
         <v>721</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="L1" s="30" t="s">
         <v>724</v>
@@ -22065,7 +22046,7 @@
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="32" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
@@ -22099,12 +22080,12 @@
         <v>571</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="D5" s="100"/>
       <c r="E5" s="100"/>
       <c r="H5" s="34" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="N5" s="34" t="s">
         <v>855</v>
@@ -22115,13 +22096,13 @@
         <v>591</v>
       </c>
       <c r="B6" s="100" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
       <c r="E6" s="100"/>
       <c r="H6" s="30" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="P6" s="31"/>
     </row>
@@ -22130,7 +22111,7 @@
         <v>591</v>
       </c>
       <c r="B7" s="100" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>593</v>
@@ -22142,7 +22123,7 @@
         <v>591</v>
       </c>
       <c r="B8" s="100" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="H8" s="30" t="s">
         <v>594</v>
@@ -22154,10 +22135,10 @@
         <v>591</v>
       </c>
       <c r="B9" s="100" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="P9" s="31"/>
     </row>
@@ -22166,10 +22147,10 @@
         <v>591</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="P10" s="31"/>
     </row>
@@ -22178,10 +22159,10 @@
         <v>591</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="P11" s="31"/>
     </row>
@@ -22200,16 +22181,16 @@
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="31" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="31" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
       <c r="N12" s="30" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="O12" s="31"/>
       <c r="P12" s="31"/>
@@ -22230,26 +22211,26 @@
         <v>799</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>1041</v>
       </c>
       <c r="G13" s="31"/>
       <c r="H13" s="31" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="I13" s="31"/>
       <c r="J13" s="31" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
       <c r="N13" s="30" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="P13" s="31"/>
       <c r="Q13" s="31"/>
@@ -22275,16 +22256,16 @@
       </c>
       <c r="G14" s="31"/>
       <c r="H14" s="31" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="I14" s="31"/>
       <c r="J14" s="31" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
       <c r="N14" s="30" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="P14" s="41" t="s">
         <v>1010</v>
@@ -22434,21 +22415,21 @@
         <v>571</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="E23" s="102"/>
       <c r="J23" s="41" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="P23" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
         <v>SetClassification</v>
       </c>
       <c r="T23" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="U23" s="41"/>
       <c r="V23" s="41"/>
@@ -22461,16 +22442,16 @@
         <v>571</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="N24" s="34" t="s">
         <v>855</v>
@@ -22484,13 +22465,13 @@
         <v>571</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="N25" s="34" t="s">
         <v>855</v>
@@ -22504,13 +22485,13 @@
         <v>571</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="N26" s="34" t="s">
         <v>855</v>
@@ -22525,10 +22506,10 @@
         <v>571</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="N28" s="34" t="s">
         <v>855</v>
@@ -22547,10 +22528,10 @@
         <v>571</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="N31" s="30" t="s">
         <v>855</v>
@@ -22561,13 +22542,13 @@
         <v>571</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="J32" s="41" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="P32" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification::",C25,"::",C26)</f>
@@ -22577,13 +22558,13 @@
         <v>933</v>
       </c>
       <c r="R32" s="41" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="S32" s="41" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="T32" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W32" s="41" t="s">
         <v>7</v>
@@ -22594,16 +22575,16 @@
         <v>1051</v>
       </c>
       <c r="B33" s="104" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="C33" s="104" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="D33" s="104" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="J33" s="104" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="N33" s="104" t="s">
         <v>841</v>
@@ -22617,16 +22598,16 @@
         <v>1051</v>
       </c>
       <c r="B34" s="104" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="C34" s="104" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="D34" s="104" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="J34" s="104" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="N34" s="104" t="s">
         <v>841</v>
@@ -22640,13 +22621,13 @@
         <v>571</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="J35" s="34"/>
       <c r="N35" s="30" t="s">
@@ -22658,11 +22639,11 @@
         <v>591</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="C36" s="34"/>
       <c r="H36" s="34" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="J36" s="34"/>
     </row>
@@ -22671,11 +22652,11 @@
         <v>591</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="C37" s="34"/>
       <c r="H37" s="34" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="J37" s="34"/>
     </row>
@@ -22684,24 +22665,24 @@
         <v>571</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="H38" s="101"/>
       <c r="J38" s="41" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="P38" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification::",C26,"::",C28)</f>
         <v>SetClassification::EmCare.B23.DE05::EmCare.B23.DE08</v>
       </c>
       <c r="T38" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W38" s="41" t="s">
         <v>7</v>
@@ -22712,19 +22693,19 @@
         <v>1051</v>
       </c>
       <c r="B39" s="104" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C39" s="104" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="D39" s="104" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="E39" s="104" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="J39" s="104" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="N39" s="104" t="s">
         <v>841</v>
@@ -22738,19 +22719,19 @@
         <v>1051</v>
       </c>
       <c r="B40" s="104" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C40" s="104" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="D40" s="104" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="E40" s="104" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="J40" s="104" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="N40" s="104" t="s">
         <v>841</v>
@@ -22764,13 +22745,13 @@
         <v>571</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="H41" s="34" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="N41" s="30" t="s">
         <v>855</v>
@@ -22781,23 +22762,23 @@
         <v>571</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="J42" s="41" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="P42" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification::",C26,"::",C28)</f>
         <v>SetClassification::EmCare.B23.DE05::EmCare.B23.DE08</v>
       </c>
       <c r="T42" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W42" s="41" t="s">
         <v>7</v>
@@ -22808,19 +22789,19 @@
         <v>1051</v>
       </c>
       <c r="B43" s="104" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="C43" s="104" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="D43" s="104" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="E43" s="104" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="J43" s="104" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="N43" s="104" t="s">
         <v>841</v>
@@ -22834,19 +22815,19 @@
         <v>1051</v>
       </c>
       <c r="B44" s="104" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="C44" s="104" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="D44" s="104" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="E44" s="104" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="J44" s="104" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="N44" s="104" t="s">
         <v>841</v>
@@ -22866,7 +22847,7 @@
         <v>611</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="N46" s="30" t="s">
         <v>855</v>
@@ -22877,13 +22858,13 @@
         <v>571</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="D47" s="41" t="s">
         <v>611</v>
       </c>
       <c r="J47" s="41" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="P47" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -22893,7 +22874,7 @@
       <c r="R47" s="101"/>
       <c r="S47" s="101"/>
       <c r="T47" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W47" s="41" t="s">
         <v>7</v>
@@ -22910,7 +22891,7 @@
         <v>628</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="N48" s="30" t="s">
         <v>855</v>
@@ -22921,13 +22902,13 @@
         <v>571</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="D49" s="41" t="s">
         <v>628</v>
       </c>
       <c r="J49" s="41" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="P49" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -22937,7 +22918,7 @@
       <c r="R49" s="101"/>
       <c r="S49" s="101"/>
       <c r="T49" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W49" s="41" t="s">
         <v>7</v>
@@ -22948,13 +22929,13 @@
         <v>571</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="N50" s="30" t="s">
         <v>855</v>
@@ -22966,13 +22947,13 @@
         <v>571</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="D51" s="41" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="J51" s="41" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="P51" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -22982,7 +22963,7 @@
       <c r="R51" s="101"/>
       <c r="S51" s="101"/>
       <c r="T51" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W51" s="41" t="s">
         <v>7</v>
@@ -22993,13 +22974,13 @@
         <v>571</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="N52" s="30" t="s">
         <v>855</v>
@@ -23011,16 +22992,16 @@
         <v>571</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="D53" s="41" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="E53" s="41" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="J53" s="41" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="P53" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -23030,7 +23011,7 @@
       <c r="R53" s="101"/>
       <c r="S53" s="101"/>
       <c r="T53" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W53" s="41" t="s">
         <v>7</v>
@@ -23041,13 +23022,13 @@
         <v>571</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="H54" s="34" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="N54" s="30" t="s">
         <v>855</v>
@@ -23059,16 +23040,16 @@
         <v>571</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="D55" s="41" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="E55" s="41" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="J55" s="41" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="P55" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -23078,7 +23059,7 @@
       <c r="R55" s="101"/>
       <c r="S55" s="101"/>
       <c r="T55" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W55" s="41" t="s">
         <v>7</v>
@@ -23089,13 +23070,13 @@
         <v>571</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="N57" s="30" t="s">
         <v>855</v>
@@ -23106,16 +23087,16 @@
         <v>571</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="D58" s="41" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E58" s="41" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="J58" s="41" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="P58" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -23125,7 +23106,7 @@
       <c r="R58" s="101"/>
       <c r="S58" s="101"/>
       <c r="T58" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W58" s="41" t="s">
         <v>7</v>
@@ -23136,13 +23117,13 @@
         <v>571</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="H59" s="34" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="N59" s="30" t="s">
         <v>855</v>
@@ -23153,16 +23134,16 @@
         <v>571</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="D60" s="41" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="E60" s="41" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="J60" s="41" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="P60" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -23172,7 +23153,7 @@
       <c r="R60" s="101"/>
       <c r="S60" s="101"/>
       <c r="T60" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W60" s="41" t="s">
         <v>7</v>
@@ -23183,13 +23164,13 @@
         <v>571</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="N61" s="30" t="s">
         <v>855</v>
@@ -23200,13 +23181,13 @@
         <v>571</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="D62" s="41" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="J62" s="41" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="P62" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -23216,7 +23197,7 @@
       <c r="R62" s="101"/>
       <c r="S62" s="101"/>
       <c r="T62" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W62" s="41" t="s">
         <v>7</v>
@@ -23227,13 +23208,13 @@
         <v>571</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="D63" s="34" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="N63" s="30" t="s">
         <v>855</v>
@@ -23244,13 +23225,13 @@
         <v>571</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="J64" s="41" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="P64" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -23260,7 +23241,7 @@
       <c r="R64" s="101"/>
       <c r="S64" s="101"/>
       <c r="T64" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W64" s="41" t="s">
         <v>7</v>
@@ -23271,13 +23252,13 @@
         <v>571</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="D65" s="34" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="N65" s="30" t="s">
         <v>855</v>
@@ -23288,13 +23269,13 @@
         <v>571</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="D66" s="41" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="J66" s="41" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="P66" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -23304,7 +23285,7 @@
       <c r="R66" s="101"/>
       <c r="S66" s="101"/>
       <c r="T66" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W66" s="41" t="s">
         <v>7</v>
@@ -23315,14 +23296,14 @@
         <v>571</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="D67" s="30" t="str">
         <f aca="false">D68</f>
         <v>No Throat Problem</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="N67" s="30" t="s">
         <v>855</v>
@@ -23333,14 +23314,14 @@
         <v>571</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="D68" s="41" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="H68" s="105"/>
       <c r="J68" s="41" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="P68" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -23350,7 +23331,7 @@
       <c r="R68" s="101"/>
       <c r="S68" s="101"/>
       <c r="T68" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W68" s="41" t="s">
         <v>7</v>
@@ -23361,14 +23342,14 @@
         <v>571</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="D69" s="30" t="str">
         <f aca="false">D70</f>
         <v>Mastoiditis</v>
       </c>
       <c r="H69" s="34" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="N69" s="30" t="s">
         <v>855</v>
@@ -23379,13 +23360,13 @@
         <v>571</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="D70" s="41" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="J70" s="41" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="P70" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -23395,7 +23376,7 @@
       <c r="R70" s="101"/>
       <c r="S70" s="101"/>
       <c r="T70" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W70" s="41" t="s">
         <v>7</v>
@@ -23406,14 +23387,14 @@
         <v>571</v>
       </c>
       <c r="C71" s="34" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="D71" s="30" t="str">
         <f aca="false">D75</f>
         <v>Acute Ear Infection</v>
       </c>
       <c r="H71" s="34" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="N71" s="30" t="s">
         <v>855</v>
@@ -23424,13 +23405,13 @@
         <v>591</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="H72" s="34" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23438,13 +23419,13 @@
         <v>591</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="H73" s="34" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23452,13 +23433,13 @@
         <v>591</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="H74" s="34" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="75" s="41" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23466,13 +23447,13 @@
         <v>571</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="D75" s="41" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="J75" s="41" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="P75" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -23482,7 +23463,7 @@
       <c r="R75" s="101"/>
       <c r="S75" s="101"/>
       <c r="T75" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W75" s="41" t="s">
         <v>7</v>
@@ -23493,14 +23474,14 @@
         <v>571</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="D76" s="30" t="str">
         <f aca="false">D80</f>
         <v>Chronic Ear Infection</v>
       </c>
       <c r="H76" s="34" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="N76" s="30" t="s">
         <v>855</v>
@@ -23511,13 +23492,13 @@
         <v>591</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="H77" s="34" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23525,13 +23506,13 @@
         <v>591</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="H78" s="34" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23540,10 +23521,10 @@
       </c>
       <c r="B79" s="34"/>
       <c r="C79" s="34" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="H79" s="34" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="N79" s="30" t="s">
         <v>855</v>
@@ -23554,20 +23535,20 @@
         <v>571</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="J80" s="41" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="P80" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification::",C81)</f>
         <v>SetClassification::EmCare.B23.DE32a_l</v>
       </c>
       <c r="T80" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W80" s="41" t="s">
         <v>7</v>
@@ -23578,16 +23559,16 @@
         <v>1051</v>
       </c>
       <c r="B81" s="104" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="C81" s="104" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="D81" s="104" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="J81" s="104" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="N81" s="104" t="s">
         <v>841</v>
@@ -23601,14 +23582,14 @@
         <v>571</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="D82" s="30" t="str">
         <f aca="false">D83</f>
         <v>No Ear Infection</v>
       </c>
       <c r="H82" s="34" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="N82" s="30" t="s">
         <v>855</v>
@@ -23619,13 +23600,13 @@
         <v>571</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D83" s="41" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="J83" s="41" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="P83" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -23635,7 +23616,7 @@
       <c r="R83" s="101"/>
       <c r="S83" s="101"/>
       <c r="T83" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W83" s="41" t="s">
         <v>7</v>
@@ -23646,14 +23627,14 @@
         <v>571</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="D84" s="30" t="str">
         <f aca="false">D85</f>
         <v>Very Severe Febrile Disease</v>
       </c>
       <c r="H84" s="34" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="N84" s="30" t="s">
         <v>855</v>
@@ -23664,13 +23645,13 @@
         <v>571</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="D85" s="41" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="J85" s="41" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="P85" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -23680,7 +23661,7 @@
       <c r="R85" s="101"/>
       <c r="S85" s="101"/>
       <c r="T85" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W85" s="41" t="s">
         <v>7</v>
@@ -23691,14 +23672,14 @@
         <v>571</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="D86" s="30" t="str">
         <f aca="false">D88</f>
         <v>Fever: possible bacterial infection</v>
       </c>
       <c r="H86" s="34" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="N86" s="30" t="s">
         <v>855</v>
@@ -23709,14 +23690,14 @@
         <v>571</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="D87" s="30" t="str">
         <f aca="false">D89</f>
         <v>Fever present every day for 7 Days or more</v>
       </c>
       <c r="H87" s="34" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="N87" s="30" t="s">
         <v>855</v>
@@ -23727,20 +23708,20 @@
         <v>571</v>
       </c>
       <c r="C88" s="41" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="D88" s="41" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="J88" s="41" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="P88" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification::",C89)</f>
         <v>SetClassification::EmCare.B23.DE26a_l</v>
       </c>
       <c r="T88" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W88" s="41" t="s">
         <v>7</v>
@@ -23751,16 +23732,16 @@
         <v>1051</v>
       </c>
       <c r="B89" s="104" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="C89" s="104" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="D89" s="104" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="J89" s="104" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="N89" s="104" t="s">
         <v>841</v>
@@ -23774,14 +23755,14 @@
         <v>571</v>
       </c>
       <c r="C90" s="34" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="D90" s="30" t="str">
         <f aca="false">D91</f>
         <v>Fever: bacterial infection unlikely</v>
       </c>
       <c r="H90" s="34" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="N90" s="30" t="s">
         <v>855</v>
@@ -23792,13 +23773,13 @@
         <v>571</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="D91" s="41" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="J91" s="41" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="P91" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -23808,7 +23789,7 @@
       <c r="R91" s="101"/>
       <c r="S91" s="101"/>
       <c r="T91" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W91" s="41" t="s">
         <v>7</v>
@@ -23819,14 +23800,14 @@
         <v>571</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="D92" s="30" t="str">
         <f aca="false">D98</f>
         <v>Severe Complicated Measles</v>
       </c>
       <c r="H92" s="34" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="N92" s="30" t="s">
         <v>855</v>
@@ -23837,13 +23818,13 @@
         <v>591</v>
       </c>
       <c r="B93" s="34" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23851,13 +23832,13 @@
         <v>591</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23865,13 +23846,13 @@
         <v>591</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="H95" s="34" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23879,13 +23860,13 @@
         <v>591</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="H96" s="34" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23893,13 +23874,13 @@
         <v>591</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="98" s="41" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23907,13 +23888,13 @@
         <v>571</v>
       </c>
       <c r="C98" s="41" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="J98" s="41" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="P98" s="41" t="str">
         <f aca="false">_xlfn.CONCAT("SetClassification")</f>
@@ -23923,7 +23904,7 @@
       <c r="R98" s="101"/>
       <c r="S98" s="101"/>
       <c r="T98" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W98" s="41" t="s">
         <v>7</v>
@@ -23934,14 +23915,14 @@
         <v>571</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="D99" s="30" t="str">
         <f aca="false">D104</f>
         <v>Measles with Eye or Mouth Complication</v>
       </c>
       <c r="H99" s="30" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="J99" s="34"/>
       <c r="N99" s="30" t="s">
@@ -23953,13 +23934,13 @@
         <v>591</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="H100" s="34" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="J100" s="34"/>
     </row>
@@ -23968,13 +23949,13 @@
         <v>591</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="H101" s="34" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="J101" s="34"/>
     </row>
@@ -23983,13 +23964,13 @@
         <v>591</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="H102" s="34" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="J102" s="34"/>
     </row>
@@ -23998,12 +23979,9 @@
         <v>591</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>1928</v>
-      </c>
-      <c r="D103" s="30" t="s">
         <v>1929</v>
       </c>
       <c r="H103" s="34" t="s">
@@ -24032,7 +24010,7 @@
       <c r="R104" s="101"/>
       <c r="S104" s="101"/>
       <c r="T104" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W104" s="41" t="s">
         <v>7</v>
@@ -24077,7 +24055,7 @@
       <c r="R106" s="101"/>
       <c r="S106" s="101"/>
       <c r="T106" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W106" s="41" t="s">
         <v>7</v>
@@ -24120,7 +24098,7 @@
         <v>SetClassification</v>
       </c>
       <c r="T108" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W108" s="41" t="s">
         <v>7</v>
@@ -24162,7 +24140,7 @@
         <v>SetClassification</v>
       </c>
       <c r="T110" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W110" s="41" t="s">
         <v>7</v>
@@ -24204,7 +24182,7 @@
         <v>SetClassification</v>
       </c>
       <c r="T112" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W112" s="41" t="s">
         <v>7</v>
@@ -24246,7 +24224,7 @@
         <v>SetClassification</v>
       </c>
       <c r="T114" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W114" s="41" t="s">
         <v>7</v>
@@ -24278,7 +24256,7 @@
         <v>1961</v>
       </c>
       <c r="D116" s="41" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="J116" s="101" t="s">
         <v>1962</v>
@@ -24288,7 +24266,7 @@
         <v>SetClassification::EmCare.B23.DE36</v>
       </c>
       <c r="T116" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W116" s="41" t="s">
         <v>7</v>
@@ -24400,7 +24378,7 @@
         <v>SetClassification</v>
       </c>
       <c r="T122" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W122" s="41" t="s">
         <v>7</v>
@@ -24442,7 +24420,7 @@
         <v>SetClassification::EmCare.B23.DE43a</v>
       </c>
       <c r="T124" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W124" s="41" t="s">
         <v>7</v>
@@ -24478,7 +24456,7 @@
         <v>1981</v>
       </c>
       <c r="D126" s="104" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="E126" s="108"/>
       <c r="J126" s="104" t="s">
@@ -24528,7 +24506,7 @@
         <v>SetClassification</v>
       </c>
       <c r="T128" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W128" s="41" t="s">
         <v>7</v>
@@ -24570,7 +24548,7 @@
         <v>SetClassification::EmCare.B23.DE46A::EmCare.B23.DE46</v>
       </c>
       <c r="T130" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W130" s="41" t="s">
         <v>7</v>
@@ -24599,7 +24577,7 @@
         <v>1989</v>
       </c>
       <c r="C132" s="104" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="D132" s="104" t="s">
         <v>1993</v>
@@ -24688,7 +24666,7 @@
         <v>SetClassification::EmCare.B23.DE48::EmCare.B23.DE48a</v>
       </c>
       <c r="T136" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W136" s="41" t="s">
         <v>7</v>
@@ -24748,7 +24726,7 @@
         <v>1051</v>
       </c>
       <c r="C140" s="106" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="D140" s="106" t="s">
         <v>2011</v>
@@ -24799,7 +24777,7 @@
         <v>SetClassification::EmCare.B23.DE50::EmCare.B23.DE50a</v>
       </c>
       <c r="T142" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W142" s="41" t="s">
         <v>7</v>
@@ -24915,7 +24893,7 @@
         <v>SetClassification::EmCare.B23.DE52a</v>
       </c>
       <c r="T148" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W148" s="41" t="s">
         <v>7</v>
@@ -24994,7 +24972,7 @@
         <v>SetClassification::EmCare.B23.DE53a</v>
       </c>
       <c r="T152" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W152" s="41" t="s">
         <v>7</v>
@@ -25025,7 +25003,7 @@
         <v>2042</v>
       </c>
       <c r="D154" s="106" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="J154" s="110" t="s">
         <v>2043</v>
@@ -25073,7 +25051,7 @@
         <v>SetClassification::EmCare.B23.DE55</v>
       </c>
       <c r="T156" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W156" s="41" t="s">
         <v>7</v>
@@ -25104,7 +25082,7 @@
         <v>2050</v>
       </c>
       <c r="D158" s="106" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="J158" s="110" t="s">
         <v>2051</v>
@@ -25148,7 +25126,7 @@
         <v>SetClassification</v>
       </c>
       <c r="T160" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W160" s="41" t="s">
         <v>7</v>
@@ -25186,7 +25164,7 @@
         <v>SetClassification::EmCare.B23.DE57a::EmCare.B23.DE57b::EmCare.B23.DE57c</v>
       </c>
       <c r="T162" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W162" s="41" t="s">
         <v>7</v>
@@ -25217,7 +25195,7 @@
         <v>2062</v>
       </c>
       <c r="D164" s="106" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="J164" s="110" t="s">
         <v>2063</v>
@@ -25254,7 +25232,7 @@
         <v>2066</v>
       </c>
       <c r="D166" s="106" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="J166" s="110" t="s">
         <v>2067</v>
@@ -25339,7 +25317,7 @@
         <v>SetClassification</v>
       </c>
       <c r="T170" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W170" s="41" t="s">
         <v>7</v>
@@ -25381,7 +25359,7 @@
         <v>SetClassification::EmCare.B23.DE60</v>
       </c>
       <c r="T172" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W172" s="41" t="s">
         <v>7</v>
@@ -25460,7 +25438,7 @@
         <v>SetClassification</v>
       </c>
       <c r="T176" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W176" s="41" t="s">
         <v>7</v>
@@ -25489,7 +25467,7 @@
         <v>571</v>
       </c>
       <c r="C178" s="101" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="D178" s="41" t="s">
         <v>298</v>
@@ -25502,7 +25480,7 @@
         <v>SetClassification</v>
       </c>
       <c r="T178" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W178" s="41" t="s">
         <v>7</v>
@@ -25544,7 +25522,7 @@
         <v>SetClassification</v>
       </c>
       <c r="T180" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W180" s="41" t="s">
         <v>7</v>
@@ -25586,7 +25564,7 @@
         <v>SetClassification</v>
       </c>
       <c r="T182" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="W182" s="41" t="s">
         <v>7</v>
@@ -25594,19 +25572,19 @@
     </row>
     <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="30" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="C183" s="30" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="D183" s="30" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="P183" s="30" t="s">
         <v>2102</v>
       </c>
       <c r="T183" s="41" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="U183" s="101"/>
       <c r="V183" s="101"/>
@@ -25676,7 +25654,7 @@
         <v>721</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="L1" s="34" t="s">
         <v>724</v>
@@ -27853,7 +27831,7 @@
       </c>
       <c r="B5" s="116"/>
       <c r="C5" s="116" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="D5" s="116"/>
       <c r="E5" s="116"/>
@@ -32452,12 +32430,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE35"/>
+  <dimension ref="A1:AE53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="R34" activeCellId="0" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34001,6 +33979,8 @@
       <c r="AB35" s="31"/>
       <c r="AC35" s="31"/>
     </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -34020,7 +34000,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34229,7 +34209,9 @@
         <v>1</v>
       </c>
       <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
+      <c r="L6" s="31" t="s">
+        <v>1114</v>
+      </c>
       <c r="M6" s="31" t="s">
         <v>963</v>
       </c>
@@ -34254,13 +34236,13 @@
         <v>571</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
@@ -34322,13 +34304,13 @@
         <v>571</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -34377,8 +34359,8 @@
   </sheetPr>
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34507,7 +34489,7 @@
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="32" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
@@ -34540,12 +34522,12 @@
         <v>648</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="I4" s="31"/>
       <c r="K4" s="31"/>
@@ -34569,15 +34551,15 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
       <c r="H5" s="31" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="I5" s="31"/>
       <c r="K5" s="31"/>
@@ -34607,7 +34589,7 @@
         <v>776</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
@@ -34676,19 +34658,19 @@
         <v>571</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
       <c r="H8" s="31" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
@@ -34727,7 +34709,7 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -34757,16 +34739,16 @@
         <v>333</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
@@ -34805,7 +34787,7 @@
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
       <c r="H11" s="31" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
@@ -34854,7 +34836,7 @@
         <v>571</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>644</v>
@@ -34864,7 +34846,7 @@
       <c r="F13" s="68"/>
       <c r="G13" s="68"/>
       <c r="H13" s="68" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="I13" s="68"/>
       <c r="J13" s="68"/>
@@ -34891,7 +34873,7 @@
         <v>571</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C14" s="68" t="s">
         <v>646</v>
@@ -34901,7 +34883,7 @@
       <c r="F14" s="68"/>
       <c r="G14" s="68"/>
       <c r="H14" s="68" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="I14" s="68"/>
       <c r="J14" s="68"/>
@@ -34992,7 +34974,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
@@ -35019,7 +35001,7 @@
         <v>992</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -35048,13 +35030,13 @@
         <v>571</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
@@ -35088,7 +35070,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="31" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B20" s="31" t="s">
         <v>271</v>
@@ -35097,7 +35079,7 @@
         <v>272</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
@@ -35134,13 +35116,13 @@
         <v>571</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
@@ -35177,13 +35159,13 @@
         <v>571</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
@@ -35220,13 +35202,13 @@
         <v>571</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
@@ -35263,13 +35245,13 @@
         <v>571</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
@@ -35330,7 +35312,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="31" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>283</v>
@@ -35339,14 +35321,14 @@
         <v>284</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="70" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
@@ -35376,13 +35358,13 @@
         <v>571</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
@@ -35418,16 +35400,16 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="31" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C28" s="31" t="s">
         <v>151</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -35466,20 +35448,20 @@
         <v>571</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
       <c r="I29" s="70" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="J29" s="31" t="n">
         <v>1</v>
@@ -35508,7 +35490,7 @@
     </row>
     <row r="30" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="68" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B30" s="68" t="s">
         <v>295</v>
@@ -35517,12 +35499,12 @@
         <v>296</v>
       </c>
       <c r="D30" s="68" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="E30" s="68"/>
       <c r="F30" s="68"/>
       <c r="G30" s="68" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H30" s="68"/>
       <c r="I30" s="68"/>
@@ -35556,20 +35538,20 @@
         <v>952</v>
       </c>
       <c r="B31" s="58" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="E31" s="58"/>
       <c r="F31" s="58"/>
       <c r="G31" s="58"/>
       <c r="H31" s="58"/>
       <c r="I31" s="58" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="J31" s="58" t="n">
         <v>1</v>
@@ -35577,7 +35559,7 @@
       <c r="K31" s="58"/>
       <c r="L31" s="58"/>
       <c r="M31" s="31" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N31" s="58"/>
       <c r="O31" s="58"/>
@@ -35601,18 +35583,18 @@
         <v>952</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="31" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
@@ -35622,7 +35604,7 @@
         <v>855</v>
       </c>
       <c r="M32" s="31" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N32" s="58"/>
       <c r="O32" s="58"/>
@@ -35673,20 +35655,20 @@
         <v>571</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="E34" s="58"/>
       <c r="F34" s="58"/>
       <c r="G34" s="58"/>
       <c r="H34" s="58"/>
       <c r="I34" s="58" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="J34" s="58" t="n">
         <v>1</v>
@@ -35715,7 +35697,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="58" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B35" s="58" t="s">
         <v>316</v>
@@ -35724,14 +35706,14 @@
         <v>317</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
       <c r="G35" s="58"/>
       <c r="H35" s="58"/>
       <c r="I35" s="71" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="J35" s="58" t="n">
         <v>1</v>
@@ -35763,20 +35745,20 @@
         <v>952</v>
       </c>
       <c r="B36" s="72" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C36" s="72" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D36" s="72" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="E36" s="72"/>
       <c r="F36" s="72"/>
       <c r="G36" s="72"/>
       <c r="H36" s="72"/>
       <c r="I36" s="72" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="J36" s="72" t="n">
         <v>1</v>
@@ -35784,7 +35766,7 @@
       <c r="K36" s="72"/>
       <c r="L36" s="72"/>
       <c r="M36" s="72" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N36" s="72"/>
       <c r="O36" s="72"/>
@@ -35808,18 +35790,18 @@
         <v>571</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H37" s="31"/>
       <c r="I37" s="31"/>
@@ -35882,27 +35864,27 @@
         <v>799</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>349</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
       <c r="G39" s="31"/>
       <c r="H39" s="31"/>
       <c r="I39" s="31" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="J39" s="31" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="31"/>
       <c r="L39" s="31" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="M39" s="72" t="s">
         <v>1010</v>
@@ -35929,18 +35911,18 @@
         <v>571</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="31"/>
       <c r="G40" s="31" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H40" s="31"/>
       <c r="I40" s="31"/>
@@ -36000,23 +35982,23 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="31" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B42" s="31" t="s">
         <v>348</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
       <c r="H42" s="31"/>
       <c r="I42" s="31" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="J42" s="31" t="n">
         <v>1</v>
@@ -36045,7 +36027,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="31" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>357</v>
@@ -36054,14 +36036,14 @@
         <v>358</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
       <c r="H43" s="31"/>
       <c r="I43" s="31" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="J43" s="31" t="n">
         <v>1</v>
@@ -36090,7 +36072,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="31" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B44" s="31" t="s">
         <v>366</v>
@@ -36099,14 +36081,14 @@
         <v>367</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="E44" s="31"/>
       <c r="F44" s="31"/>
       <c r="G44" s="31"/>
       <c r="H44" s="31"/>
       <c r="I44" s="31" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="J44" s="31" t="n">
         <v>1</v>
@@ -36135,7 +36117,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="58" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B45" s="58" t="s">
         <v>307</v>
@@ -36144,14 +36126,14 @@
         <v>308</v>
       </c>
       <c r="D45" s="58" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="E45" s="58"/>
       <c r="F45" s="58"/>
       <c r="G45" s="58"/>
       <c r="H45" s="58"/>
       <c r="I45" s="72" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="J45" s="58" t="n">
         <v>1</v>
@@ -36183,20 +36165,20 @@
         <v>571</v>
       </c>
       <c r="B46" s="58" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C46" s="58" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D46" s="58" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="E46" s="58"/>
       <c r="F46" s="58"/>
       <c r="G46" s="58"/>
       <c r="H46" s="58"/>
       <c r="I46" s="31" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="J46" s="58" t="n">
         <v>1</v>
@@ -36220,7 +36202,7 @@
       <c r="U46" s="58"/>
       <c r="V46" s="58"/>
       <c r="W46" s="58" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="X46" s="58"/>
       <c r="Y46" s="58"/>
@@ -36230,20 +36212,20 @@
         <v>571</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
       <c r="H47" s="31"/>
       <c r="I47" s="31" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="J47" s="31"/>
       <c r="K47" s="31"/>
